--- a/data/raw/monthly_summary.xlsx
+++ b/data/raw/monthly_summary.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="18750" windowHeight="6200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,841 +68,847 @@
     <t>Swanson Group</t>
   </si>
   <si>
+    <t>PROD_561</t>
+  </si>
+  <si>
+    <t>Team-orientew well-modulated access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  06-18-25  </t>
+  </si>
+  <si>
+    <t>Angela Smith</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
     <t>Graham Inc</t>
   </si>
   <si>
+    <t>PROD_218</t>
+  </si>
+  <si>
+    <t>Polarized clear-thinking array</t>
+  </si>
+  <si>
+    <t>11-28-24</t>
+  </si>
+  <si>
+    <t>Ruth Russell</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
     <t>Vaughn-Ross</t>
   </si>
   <si>
+    <t>PROD_812</t>
+  </si>
+  <si>
+    <t>Implemented leadingedge algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Invalid Date  </t>
+  </si>
+  <si>
+    <t>Heidi Miller</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Team-oriented zero tolerance Graphical User Interface  </t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Terrance Scott  </t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
     <t>Curry, Brown and Lucero</t>
   </si>
   <si>
+    <t>PROD_357</t>
+  </si>
+  <si>
+    <t>Public-key mobile archive</t>
+  </si>
+  <si>
+    <t>08-06-24</t>
+  </si>
+  <si>
+    <t>Jeanette Rhodes</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>PROD_513</t>
+  </si>
+  <si>
+    <t>User-centric high-level implementation</t>
+  </si>
+  <si>
+    <t>09-09-2023</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
     <t>Horn-Roberts</t>
   </si>
   <si>
+    <t xml:space="preserve">  Function-basedj4thgeneration groupware  </t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ruth Russell  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Check  </t>
+  </si>
+  <si>
     <t>Guzman, Santana and Kelly</t>
   </si>
   <si>
+    <t>PROD_231</t>
+  </si>
+  <si>
+    <t>Optimized zero-defect support</t>
+  </si>
+  <si>
+    <t>14-04-2025</t>
+  </si>
+  <si>
+    <t>PROD_831</t>
+  </si>
+  <si>
+    <t>Team-oriented zero tolerance Graphical User Interface</t>
+  </si>
+  <si>
+    <t>12-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jessica Rogers  </t>
+  </si>
+  <si>
+    <t>PROD_469</t>
+  </si>
+  <si>
+    <t>Self-enabling eco-centric data-warehouse</t>
+  </si>
+  <si>
+    <t>09-01-24</t>
+  </si>
+  <si>
+    <t>Kyle Carter</t>
+  </si>
+  <si>
+    <t>Wire Transfer</t>
+  </si>
+  <si>
     <t>May-Campbell</t>
   </si>
   <si>
+    <t>PROD_151</t>
+  </si>
+  <si>
+    <t>Pxe-emptive zero-defect moratorium</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
     <t>Weber-Lawson</t>
   </si>
   <si>
+    <t>PROD_524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2023-09-23  </t>
+  </si>
+  <si>
+    <t>Dakota Garcia DDS</t>
+  </si>
+  <si>
+    <t>Bank Transfer</t>
+  </si>
+  <si>
     <t>Brooks, Smyth and Daniels</t>
   </si>
   <si>
+    <t>PROD_180</t>
+  </si>
+  <si>
+    <t>Switchable national circuit</t>
+  </si>
+  <si>
+    <t>15-09-2023</t>
+  </si>
+  <si>
+    <t>Jacqueline Bsooks</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Rodriguez, Duke and Bryant  </t>
   </si>
   <si>
+    <t>PROD_421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Diverse methodical applicatizn  </t>
+  </si>
+  <si>
     <t>Horn-Roberjs</t>
   </si>
   <si>
+    <t>PROD_523</t>
+  </si>
+  <si>
+    <t>Synergistic modular capability</t>
+  </si>
+  <si>
+    <t>10-20-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Veronica Roth  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cash  </t>
+  </si>
+  <si>
+    <t>PROD_985</t>
+  </si>
+  <si>
+    <t>Proactive attitude-oriented adapter</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
     <t>Mccarthy-Gonzales</t>
   </si>
   <si>
+    <t xml:space="preserve">  PROD_864  </t>
+  </si>
+  <si>
+    <t>Pre-emptive zero-defect moratorium</t>
+  </si>
+  <si>
+    <t>02-12-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Southwest  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bank Transfer  </t>
+  </si>
+  <si>
     <t>Rodriguez, Duke and Bryant</t>
   </si>
   <si>
+    <t>PROD_461</t>
+  </si>
+  <si>
+    <t>Ameliorated mission-critical collaboration</t>
+  </si>
+  <si>
+    <t>04/24/2024</t>
+  </si>
+  <si>
+    <t>Veronica Roth</t>
+  </si>
+  <si>
     <t>Bauer Group</t>
   </si>
   <si>
+    <t>PROD_646</t>
+  </si>
+  <si>
+    <t>Horizontal tangible circuit</t>
+  </si>
+  <si>
+    <t>04-07-2024</t>
+  </si>
+  <si>
+    <t>Mr. Brian Clay MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  West  </t>
+  </si>
+  <si>
     <t>Callahan-Patterson</t>
   </si>
   <si>
+    <t>Face-to-face clear-thinking website</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
     <t>Anderson, Gutierrez and Brown</t>
   </si>
   <si>
+    <t>PROD_588</t>
+  </si>
+  <si>
+    <t>01-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Angela Smith  </t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PayPal  </t>
+  </si>
+  <si>
+    <t>PROD_515</t>
+  </si>
+  <si>
+    <t>Customizable asynchronous utilization</t>
+  </si>
+  <si>
+    <t>12-10-24</t>
+  </si>
+  <si>
+    <t>Kenneth Smith</t>
+  </si>
+  <si>
     <t>Johnson, Anderson and Miller</t>
   </si>
   <si>
+    <t>PROD_459</t>
+  </si>
+  <si>
+    <t>Function-based 4thgeneration groupware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2025-02-09  </t>
+  </si>
+  <si>
+    <t>Terrance Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Bauer Group  </t>
   </si>
   <si>
+    <t>PROD_852</t>
+  </si>
+  <si>
+    <t>Team-oriented well-modulated access</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>Jhel Clark</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Wright, Jones and Pearson  </t>
   </si>
   <si>
+    <t>PROD_884</t>
+  </si>
+  <si>
+    <t>Monitored bifurcated secured line</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>Jacqueline Brooks</t>
+  </si>
+  <si>
     <t>Roberts-Ochoa</t>
   </si>
   <si>
+    <t>PROD_804</t>
+  </si>
+  <si>
+    <t>30-08-2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Mcintosh and Sons  </t>
   </si>
   <si>
+    <t>PROD_575</t>
+  </si>
+  <si>
+    <t>08-29-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AngelaxSmith  </t>
+  </si>
+  <si>
     <t>Brooks, Smith and Dantels</t>
   </si>
   <si>
+    <t>PROD_280</t>
+  </si>
+  <si>
+    <t>Reduced mobile instruction set</t>
+  </si>
+  <si>
+    <t>07-31-25</t>
+  </si>
+  <si>
     <t>Chapman Inc</t>
   </si>
   <si>
+    <t>PROD_604</t>
+  </si>
+  <si>
+    <t>26-10-2023</t>
+  </si>
+  <si>
+    <t>Mark Sosa</t>
+  </si>
+  <si>
     <t>Fisher-Lam</t>
   </si>
   <si>
+    <t>PROD_779</t>
+  </si>
+  <si>
+    <t>Profound full-range circuit</t>
+  </si>
+  <si>
+    <t>02-25-25</t>
+  </si>
+  <si>
     <t>Glass, Davis and Williams</t>
   </si>
   <si>
+    <t>PROD_563</t>
+  </si>
+  <si>
+    <t>04/28/2025</t>
+  </si>
+  <si>
     <t>Taylor Ltd</t>
   </si>
   <si>
+    <t>PROD_975</t>
+  </si>
+  <si>
+    <t>07-12-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Northeast  </t>
+  </si>
+  <si>
     <t>Holt Group</t>
   </si>
   <si>
+    <t>PROD_677</t>
+  </si>
+  <si>
+    <t>03/05/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jacqueline Brooks  </t>
+  </si>
+  <si>
+    <t>PROD_661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Optimized zero-defect support  </t>
+  </si>
+  <si>
+    <t>12/02/2023</t>
+  </si>
+  <si>
     <t>Martinez-Johnson</t>
   </si>
   <si>
+    <t>PROD_962</t>
+  </si>
+  <si>
+    <t>Invalid Date</t>
+  </si>
+  <si>
+    <t>PROD_655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Polarized clear-thinking array  </t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Joel Clark  </t>
+  </si>
+  <si>
+    <t>PROD_612</t>
+  </si>
+  <si>
+    <t>11/05/2023</t>
+  </si>
+  <si>
+    <t>PROD_518</t>
+  </si>
+  <si>
+    <t>Diverse methodical application</t>
+  </si>
+  <si>
+    <t>08-15-25</t>
+  </si>
+  <si>
+    <t>Joshua James DDS</t>
+  </si>
+  <si>
     <t>Jones-Madden</t>
   </si>
   <si>
+    <t xml:space="preserve">  11/17/2023  </t>
+  </si>
+  <si>
     <t>Weber-Lawsin</t>
   </si>
   <si>
+    <t>Pre-emptive zerosdefect moratorium</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  South  </t>
+  </si>
+  <si>
     <t>Dodson, Perez and Evans</t>
   </si>
   <si>
+    <t>PROD_375</t>
+  </si>
+  <si>
+    <t>09-14-24</t>
+  </si>
+  <si>
+    <t>Joel Cjark</t>
+  </si>
+  <si>
     <t>Yates-Walker</t>
   </si>
   <si>
+    <t>PROD_511</t>
+  </si>
+  <si>
+    <t>02/18/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Central  </t>
+  </si>
+  <si>
     <t>Williams, Gardner and Buck</t>
   </si>
   <si>
+    <t>01/07/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PROD_140  </t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Gilbert Group  </t>
   </si>
   <si>
+    <t>PROD_914</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>PROD_798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2025-07-17  </t>
+  </si>
+  <si>
     <t xml:space="preserve">  Glass, Davis and Williams  </t>
   </si>
   <si>
+    <t>PROD_849</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>MarkqSosa</t>
+  </si>
+  <si>
     <t>Chapman-Jones</t>
   </si>
   <si>
+    <t>PROD_160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Phased upward-trending success  </t>
+  </si>
+  <si>
+    <t>12-06-2024</t>
+  </si>
+  <si>
     <t>Gallagher-Baker</t>
   </si>
   <si>
+    <t>PROD_262</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>PROD_762</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>PROD_891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  01/30/2025  </t>
+  </si>
+  <si>
+    <t>PROD_199</t>
+  </si>
+  <si>
+    <t>04/28/2024</t>
+  </si>
+  <si>
     <t>Payne-Callahan</t>
   </si>
   <si>
+    <t>PROD_845</t>
+  </si>
+  <si>
+    <t>Phased upward-trending sucoess</t>
+  </si>
+  <si>
+    <t>2024-08-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kenneth Smith  </t>
+  </si>
+  <si>
+    <t>PROD_839</t>
+  </si>
+  <si>
+    <t>06-04-2024</t>
+  </si>
+  <si>
     <t>Dowzs Ltd</t>
   </si>
   <si>
+    <t xml:space="preserve">  PROD_993  </t>
+  </si>
+  <si>
+    <t>09-03-2024</t>
+  </si>
+  <si>
+    <t>Joel Clark</t>
+  </si>
+  <si>
+    <t>PROD_113</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
     <t>Vaughc-Ross</t>
   </si>
   <si>
+    <t>PROD_128</t>
+  </si>
+  <si>
+    <t>03-08-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Vaughn-Ross  </t>
   </si>
   <si>
+    <t>PROD_472</t>
+  </si>
+  <si>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>PROD_485</t>
+  </si>
+  <si>
+    <t>17-09-2023</t>
+  </si>
+  <si>
+    <t>PROD_217</t>
+  </si>
+  <si>
+    <t>Polarized next generation encryption</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Anderson, Gutierrez and Brown  </t>
   </si>
   <si>
+    <t>PROD_541</t>
+  </si>
+  <si>
+    <t>Polariznd next generation encryption</t>
+  </si>
+  <si>
+    <t>05-02-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  North  </t>
+  </si>
+  <si>
+    <t>PROD_723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  07/08/2024  </t>
+  </si>
+  <si>
     <t xml:space="preserve">  Goodwin-Anderson  </t>
   </si>
   <si>
+    <t>PROD_673</t>
+  </si>
+  <si>
+    <t>Self-enablingxeco-centric data-warehouse</t>
+  </si>
+  <si>
+    <t>07-26-25</t>
+  </si>
+  <si>
+    <t>Heidi Millfr</t>
+  </si>
+  <si>
+    <t>PROD_788</t>
+  </si>
+  <si>
+    <t>28-10-2024</t>
+  </si>
+  <si>
+    <t>PROD_378</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>PROD_660</t>
+  </si>
+  <si>
+    <t>Mandatory methodical leverage</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>PROD_715</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
     <t>Gilbert Group</t>
   </si>
   <si>
+    <t>PROD_488</t>
+  </si>
+  <si>
+    <t>Polarized clearhthinking array</t>
+  </si>
+  <si>
+    <t>10/02/2023</t>
+  </si>
+  <si>
     <t>Harris LLC</t>
   </si>
   <si>
+    <t>PROD_532</t>
+  </si>
+  <si>
+    <t>2023-12-28</t>
+  </si>
+  <si>
     <t>Wright, vones and Pearson</t>
   </si>
   <si>
+    <t>PROD_766</t>
+  </si>
+  <si>
     <t>Black-Jimenez</t>
   </si>
   <si>
+    <t xml:space="preserve">  PROD_379  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Profound full-range circuit  </t>
+  </si>
+  <si>
+    <t>01/04/2024</t>
+  </si>
+  <si>
+    <t>PROD_755</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
     <t>Calderon-Wallace</t>
   </si>
   <si>
-    <t>PROD_561</t>
-  </si>
-  <si>
-    <t>PROD_218</t>
-  </si>
-  <si>
-    <t>PROD_812</t>
-  </si>
-  <si>
-    <t>PROD_357</t>
-  </si>
-  <si>
-    <t>PROD_513</t>
-  </si>
-  <si>
-    <t>PROD_231</t>
-  </si>
-  <si>
-    <t>PROD_831</t>
-  </si>
-  <si>
-    <t>PROD_469</t>
-  </si>
-  <si>
-    <t>PROD_151</t>
-  </si>
-  <si>
-    <t>PROD_524</t>
-  </si>
-  <si>
-    <t>PROD_180</t>
-  </si>
-  <si>
-    <t>PROD_421</t>
-  </si>
-  <si>
-    <t>PROD_523</t>
-  </si>
-  <si>
-    <t>PROD_985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PROD_864  </t>
-  </si>
-  <si>
-    <t>PROD_461</t>
-  </si>
-  <si>
-    <t>PROD_646</t>
-  </si>
-  <si>
-    <t>PROD_588</t>
-  </si>
-  <si>
-    <t>PROD_515</t>
-  </si>
-  <si>
-    <t>PROD_459</t>
-  </si>
-  <si>
-    <t>PROD_852</t>
-  </si>
-  <si>
-    <t>PROD_884</t>
-  </si>
-  <si>
-    <t>PROD_804</t>
-  </si>
-  <si>
-    <t>PROD_575</t>
-  </si>
-  <si>
-    <t>PROD_280</t>
-  </si>
-  <si>
-    <t>PROD_604</t>
-  </si>
-  <si>
-    <t>PROD_779</t>
-  </si>
-  <si>
-    <t>PROD_563</t>
-  </si>
-  <si>
-    <t>PROD_975</t>
-  </si>
-  <si>
-    <t>PROD_677</t>
-  </si>
-  <si>
-    <t>PROD_661</t>
-  </si>
-  <si>
-    <t>PROD_962</t>
-  </si>
-  <si>
-    <t>PROD_655</t>
-  </si>
-  <si>
-    <t>PROD_612</t>
-  </si>
-  <si>
-    <t>PROD_518</t>
-  </si>
-  <si>
-    <t>PROD_375</t>
-  </si>
-  <si>
-    <t>PROD_511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PROD_140  </t>
-  </si>
-  <si>
-    <t>PROD_914</t>
-  </si>
-  <si>
-    <t>PROD_798</t>
-  </si>
-  <si>
-    <t>PROD_849</t>
-  </si>
-  <si>
-    <t>PROD_160</t>
-  </si>
-  <si>
-    <t>PROD_262</t>
-  </si>
-  <si>
-    <t>PROD_762</t>
-  </si>
-  <si>
-    <t>PROD_891</t>
-  </si>
-  <si>
-    <t>PROD_199</t>
-  </si>
-  <si>
-    <t>PROD_845</t>
-  </si>
-  <si>
-    <t>PROD_839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PROD_993  </t>
-  </si>
-  <si>
-    <t>PROD_113</t>
-  </si>
-  <si>
-    <t>PROD_128</t>
-  </si>
-  <si>
-    <t>PROD_472</t>
-  </si>
-  <si>
-    <t>PROD_485</t>
-  </si>
-  <si>
-    <t>PROD_217</t>
-  </si>
-  <si>
-    <t>PROD_541</t>
-  </si>
-  <si>
-    <t>PROD_723</t>
-  </si>
-  <si>
-    <t>PROD_673</t>
-  </si>
-  <si>
-    <t>PROD_788</t>
-  </si>
-  <si>
-    <t>PROD_378</t>
-  </si>
-  <si>
-    <t>PROD_660</t>
-  </si>
-  <si>
-    <t>PROD_715</t>
-  </si>
-  <si>
-    <t>PROD_488</t>
-  </si>
-  <si>
-    <t>PROD_532</t>
-  </si>
-  <si>
-    <t>PROD_766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PROD_379  </t>
-  </si>
-  <si>
-    <t>PROD_755</t>
-  </si>
-  <si>
     <t xml:space="preserve">  PROD_556  </t>
   </si>
   <si>
-    <t>Team-orientew well-modulated access</t>
-  </si>
-  <si>
-    <t>Polarized clear-thinking array</t>
-  </si>
-  <si>
-    <t>Implemented leadingedge algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Team-oriented zero tolerance Graphical User Interface  </t>
-  </si>
-  <si>
-    <t>Public-key mobile archive</t>
-  </si>
-  <si>
-    <t>User-centric high-level implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Function-basedj4thgeneration groupware  </t>
-  </si>
-  <si>
-    <t>Optimized zero-defect support</t>
-  </si>
-  <si>
-    <t>Team-oriented zero tolerance Graphical User Interface</t>
-  </si>
-  <si>
-    <t>Self-enabling eco-centric data-warehouse</t>
-  </si>
-  <si>
-    <t>Pxe-emptive zero-defect moratorium</t>
-  </si>
-  <si>
-    <t>Switchable national circuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Diverse methodical applicatizn  </t>
-  </si>
-  <si>
-    <t>Synergistic modular capability</t>
-  </si>
-  <si>
-    <t>Proactive attitude-oriented adapter</t>
-  </si>
-  <si>
-    <t>Pre-emptive zero-defect moratorium</t>
-  </si>
-  <si>
-    <t>Ameliorated mission-critical collaboration</t>
-  </si>
-  <si>
-    <t>Horizontal tangible circuit</t>
-  </si>
-  <si>
-    <t>Face-to-face clear-thinking website</t>
-  </si>
-  <si>
-    <t>Customizable asynchronous utilization</t>
-  </si>
-  <si>
-    <t>Function-based 4thgeneration groupware</t>
-  </si>
-  <si>
-    <t>Team-oriented well-modulated access</t>
-  </si>
-  <si>
-    <t>Monitored bifurcated secured line</t>
-  </si>
-  <si>
-    <t>Reduced mobile instruction set</t>
-  </si>
-  <si>
-    <t>Profound full-range circuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Optimized zero-defect support  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Polarized clear-thinking array  </t>
-  </si>
-  <si>
-    <t>Diverse methodical application</t>
-  </si>
-  <si>
-    <t>Pre-emptive zerosdefect moratorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Phased upward-trending success  </t>
-  </si>
-  <si>
-    <t>Phased upward-trending sucoess</t>
-  </si>
-  <si>
-    <t>Polarized next generation encryption</t>
-  </si>
-  <si>
-    <t>Polariznd next generation encryption</t>
-  </si>
-  <si>
-    <t>Self-enablingxeco-centric data-warehouse</t>
-  </si>
-  <si>
-    <t>Mandatory methodical leverage</t>
-  </si>
-  <si>
-    <t>Polarized clearhthinking array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Profound full-range circuit  </t>
-  </si>
-  <si>
     <t xml:space="preserve">  Business-focused discrete knowledge user  </t>
   </si>
   <si>
-    <t xml:space="preserve">  06-18-25  </t>
-  </si>
-  <si>
-    <t>11-28-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Invalid Date  </t>
-  </si>
-  <si>
-    <t>2024-10-17</t>
-  </si>
-  <si>
-    <t>08-06-24</t>
-  </si>
-  <si>
-    <t>09-09-2023</t>
-  </si>
-  <si>
-    <t>2024-08-19</t>
-  </si>
-  <si>
-    <t>14-04-2025</t>
-  </si>
-  <si>
-    <t>12-02-2025</t>
-  </si>
-  <si>
-    <t>09-01-24</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2023-09-23  </t>
-  </si>
-  <si>
-    <t>15-09-2023</t>
-  </si>
-  <si>
-    <t>10-20-24</t>
-  </si>
-  <si>
-    <t>2025-07-14</t>
-  </si>
-  <si>
-    <t>02-12-24</t>
-  </si>
-  <si>
-    <t>04/24/2024</t>
-  </si>
-  <si>
-    <t>04-07-2024</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
-    <t>01-02-25</t>
-  </si>
-  <si>
-    <t>12-10-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2025-02-09  </t>
-  </si>
-  <si>
-    <t>07/10/2025</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
-    <t>30-08-2024</t>
-  </si>
-  <si>
-    <t>08-29-23</t>
-  </si>
-  <si>
-    <t>07-31-25</t>
-  </si>
-  <si>
-    <t>26-10-2023</t>
-  </si>
-  <si>
-    <t>02-25-25</t>
-  </si>
-  <si>
-    <t>04/28/2025</t>
-  </si>
-  <si>
-    <t>07-12-2023</t>
-  </si>
-  <si>
-    <t>03/05/2025</t>
-  </si>
-  <si>
-    <t>12/02/2023</t>
-  </si>
-  <si>
-    <t>Invalid Date</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>11/05/2023</t>
-  </si>
-  <si>
-    <t>08-15-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  11/17/2023  </t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>09-14-24</t>
-  </si>
-  <si>
-    <t>02/18/2025</t>
-  </si>
-  <si>
-    <t>01/07/2024</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>02/02/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2025-07-17  </t>
-  </si>
-  <si>
-    <t>2024-09-10</t>
-  </si>
-  <si>
-    <t>12-06-2024</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  01/30/2025  </t>
-  </si>
-  <si>
-    <t>04/28/2024</t>
-  </si>
-  <si>
-    <t>2024-08-04</t>
-  </si>
-  <si>
-    <t>06-04-2024</t>
-  </si>
-  <si>
-    <t>09-03-2024</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>03-08-25</t>
-  </si>
-  <si>
-    <t>2023-12-30</t>
-  </si>
-  <si>
-    <t>17-09-2023</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>05-02-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  07/08/2024  </t>
-  </si>
-  <si>
-    <t>07-26-25</t>
-  </si>
-  <si>
-    <t>28-10-2024</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>2023-11-11</t>
-  </si>
-  <si>
-    <t>03/06/2025</t>
-  </si>
-  <si>
-    <t>10/02/2023</t>
-  </si>
-  <si>
-    <t>2023-12-28</t>
-  </si>
-  <si>
-    <t>01/04/2024</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
     <t>2024-10-09</t>
-  </si>
-  <si>
-    <t>Angela Smith</t>
-  </si>
-  <si>
-    <t>Ruth Russell</t>
-  </si>
-  <si>
-    <t>Heidi Miller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Terrance Scott  </t>
-  </si>
-  <si>
-    <t>Jeanette Rhodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ruth Russell  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jessica Rogers  </t>
-  </si>
-  <si>
-    <t>Kyle Carter</t>
-  </si>
-  <si>
-    <t>Dakota Garcia DDS</t>
-  </si>
-  <si>
-    <t>Jacqueline Bsooks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Veronica Roth  </t>
-  </si>
-  <si>
-    <t>Veronica Roth</t>
-  </si>
-  <si>
-    <t>Mr. Brian Clay MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Angela Smith  </t>
-  </si>
-  <si>
-    <t>Kenneth Smith</t>
-  </si>
-  <si>
-    <t>Terrance Scott</t>
-  </si>
-  <si>
-    <t>Jhel Clark</t>
-  </si>
-  <si>
-    <t>Jacqueline Brooks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  AngelaxSmith  </t>
-  </si>
-  <si>
-    <t>Mark Sosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jacqueline Brooks  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Joel Clark  </t>
-  </si>
-  <si>
-    <t>Joshua James DDS</t>
-  </si>
-  <si>
-    <t>Joel Cjark</t>
-  </si>
-  <si>
-    <t>MarkqSosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kenneth Smith  </t>
-  </si>
-  <si>
-    <t>Joel Clark</t>
-  </si>
-  <si>
-    <t>Heidi Millfr</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>Southwest</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Southwest  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  West  </t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Northeast  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  South  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Central  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  North  </t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>PayPal</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Check  </t>
-  </si>
-  <si>
-    <t>Wire Transfer</t>
-  </si>
-  <si>
-    <t>Bank Transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Cash  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Bank Transfer  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PayPal  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,19 +916,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -932,9 +1288,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -942,11 +1540,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1229,17 +1879,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="6.27272727272727" customWidth="1"/>
+    <col min="2" max="2" width="32.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="12.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="53.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="10.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="13.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="19.2727272727273" customWidth="1"/>
+    <col min="10" max="10" width="12.3636363636364" customWidth="1"/>
+    <col min="11" max="11" width="15.5454545454545" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -1279,9 +1943,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="2:7">
       <c r="B2">
-        <f>== SUBTOTAL FOR ROWS 1-20 ===</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -1296,10 +1959,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>41</v>
@@ -1311,16 +1974,16 @@
         <v>17900.6</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <v>0.06</v>
@@ -1331,13 +1994,13 @@
         <v>1103</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>82</v>
@@ -1349,16 +2012,16 @@
         <v>15412.72</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1369,34 +2032,34 @@
         <v>6869</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>27</v>
       </c>
       <c r="F5">
-        <v>629.1799999999999</v>
+        <v>629.18</v>
       </c>
       <c r="G5">
         <v>23731.56</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1407,7 +2070,7 @@
         <v>6482</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>49</v>
@@ -1419,16 +2082,16 @@
         <v>12577.81</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L6">
         <v>0.15</v>
@@ -1439,13 +2102,13 @@
         <v>7344</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>29</v>
@@ -1457,16 +2120,16 @@
         <v>3232.34</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L7">
         <v>0.05</v>
@@ -1477,13 +2140,13 @@
         <v>4238</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>29</v>
@@ -1495,16 +2158,16 @@
         <v>19439.67</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1515,31 +2178,31 @@
         <v>9819</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>42</v>
       </c>
       <c r="F9">
-        <v>81.34999999999999</v>
+        <v>81.35</v>
       </c>
       <c r="G9">
         <v>3416.7</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1550,31 +2213,31 @@
         <v>9819</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>81.34999999999999</v>
+        <v>81.35</v>
       </c>
       <c r="G10">
         <v>3416.7</v>
       </c>
       <c r="H10" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1585,13 +2248,13 @@
         <v>1523</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>93</v>
@@ -1603,16 +2266,16 @@
         <v>91326</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1623,13 +2286,13 @@
         <v>8489</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1641,16 +2304,16 @@
         <v>151.24</v>
       </c>
       <c r="H12" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1661,13 +2324,13 @@
         <v>4161</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1676,16 +2339,16 @@
         <v>114.8</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1696,13 +2359,13 @@
         <v>4076</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>41</v>
@@ -1711,19 +2374,19 @@
         <v>231.42</v>
       </c>
       <c r="G14">
-        <v>9488.219999999999</v>
+        <v>9488.22</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1734,13 +2397,13 @@
         <v>1536</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>67</v>
@@ -1752,16 +2415,16 @@
         <v>16651.51</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L15">
         <v>0.14</v>
@@ -1772,13 +2435,13 @@
         <v>2949</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>47</v>
@@ -1790,16 +2453,16 @@
         <v>8381.51</v>
       </c>
       <c r="H16" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1810,13 +2473,13 @@
         <v>2949</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1828,16 +2491,16 @@
         <v>8381.51</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1848,13 +2511,13 @@
         <v>6272</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <v>15</v>
@@ -1866,13 +2529,13 @@
         <v>13233.9</v>
       </c>
       <c r="I18" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1883,13 +2546,13 @@
         <v>7513</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>78</v>
@@ -1901,16 +2564,16 @@
         <v>55980.05</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1921,13 +2584,13 @@
         <v>8761</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="E20">
         <v>28</v>
@@ -1939,16 +2602,16 @@
         <v>18150.23</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1959,13 +2622,13 @@
         <v>9287</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="E21">
         <v>13</v>
@@ -1977,16 +2640,16 @@
         <v>8486.4</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1997,13 +2660,13 @@
         <v>9287</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -2015,16 +2678,16 @@
         <v>8486.4</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2035,13 +2698,13 @@
         <v>1222</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="E23">
         <v>69</v>
@@ -2053,28 +2716,27 @@
         <v>60809.7</v>
       </c>
       <c r="H23" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="J23" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="2:7">
       <c r="B24">
-        <f>== SUBTOTAL FOR ROWS 21-40 ===</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <v>557039.9199999999</v>
+        <v>557039.92</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2082,13 +2744,13 @@
         <v>2827</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>57</v>
@@ -2100,16 +2762,16 @@
         <v>12112.5</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2120,34 +2782,34 @@
         <v>7121</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E26">
         <v>44</v>
       </c>
       <c r="F26">
-        <v>762.8099999999999</v>
+        <v>762.81</v>
       </c>
       <c r="G26">
         <v>34540.78</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2158,13 +2820,13 @@
         <v>9961</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="E27">
         <v>65</v>
@@ -2176,16 +2838,16 @@
         <v>14821.84</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="L27">
         <v>0.11</v>
@@ -2196,13 +2858,13 @@
         <v>7778</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>30</v>
@@ -2214,16 +2876,16 @@
         <v>15041.7</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2234,13 +2896,13 @@
         <v>2240</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -2252,16 +2914,16 @@
         <v>4965.68</v>
       </c>
       <c r="H29" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2272,13 +2934,13 @@
         <v>7190</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>83</v>
@@ -2287,19 +2949,19 @@
         <v>788.2</v>
       </c>
       <c r="G30">
-        <v>73721.24000000001</v>
+        <v>73721.24</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2310,13 +2972,13 @@
         <v>6130</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E31">
         <v>27</v>
@@ -2328,16 +2990,16 @@
         <v>942.84</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="K31" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2348,13 +3010,13 @@
         <v>1243</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>22</v>
@@ -2366,16 +3028,16 @@
         <v>15540.58</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="I32" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="K32" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L32">
         <v>0.04</v>
@@ -2386,13 +3048,13 @@
         <v>1945</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>55</v>
@@ -2404,16 +3066,16 @@
         <v>33651.75</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L33">
         <v>0.17</v>
@@ -2424,13 +3086,13 @@
         <v>5299</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2439,16 +3101,16 @@
         <v>799.97</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2459,13 +3121,13 @@
         <v>4714</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2477,16 +3139,16 @@
         <v>327.3</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="I35" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="J35" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2497,13 +3159,13 @@
         <v>9788</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E36">
         <v>72</v>
@@ -2515,16 +3177,16 @@
         <v>42152.4</v>
       </c>
       <c r="H36" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="I36" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2535,28 +3197,28 @@
         <v>3151</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="F37">
         <v>241.25</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="I37" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="J37" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2567,13 +3229,13 @@
         <v>8428</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="E38">
         <v>63</v>
@@ -2585,16 +3247,16 @@
         <v>3464.37</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I38" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="J38" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2605,13 +3267,13 @@
         <v>9047</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E39">
         <v>93</v>
@@ -2623,16 +3285,16 @@
         <v>18685.32</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="I39" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="K39" t="s">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L39">
         <v>0.24</v>
@@ -2643,10 +3305,10 @@
         <v>6728</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E40">
         <v>93</v>
@@ -2658,16 +3320,16 @@
         <v>65406.9</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="I40" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2678,13 +3340,13 @@
         <v>1055</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="E41">
         <v>78</v>
@@ -2696,16 +3358,16 @@
         <v>61092.72</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="I41" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="J41" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2716,13 +3378,13 @@
         <v>9120</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E42">
         <v>91</v>
@@ -2734,16 +3396,16 @@
         <v>64950.34</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I42" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="J42" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L42">
         <v>0.2</v>
@@ -2754,13 +3416,13 @@
         <v>8509</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E43">
         <v>94</v>
@@ -2772,16 +3434,16 @@
         <v>34811.96</v>
       </c>
       <c r="H43" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="I43" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2792,13 +3454,13 @@
         <v>8615</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E44">
         <v>64</v>
@@ -2810,16 +3472,16 @@
         <v>25593.6</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="I44" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="J44" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2830,10 +3492,10 @@
         <v>3980</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E45">
         <v>57</v>
@@ -2845,24 +3507,23 @@
         <v>40225.47</v>
       </c>
       <c r="H45" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="I45" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="J45" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="K45" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="2:7">
       <c r="B46">
-        <f>== SUBTOTAL FOR ROWS 41-60 ===</f>
         <v>0</v>
       </c>
       <c r="G46">
@@ -2874,13 +3535,13 @@
         <v>1947</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2889,30 +3550,30 @@
         <v>969.95</v>
       </c>
       <c r="H47" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="J47" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="2:12">
       <c r="B48" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="E48">
         <v>6</v>
@@ -2924,16 +3585,16 @@
         <v>2782.08</v>
       </c>
       <c r="H48" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="I48" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="J48" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K48" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2944,13 +3605,13 @@
         <v>8879</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E49">
         <v>51</v>
@@ -2962,16 +3623,16 @@
         <v>1887</v>
       </c>
       <c r="H49" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I49" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -2982,13 +3643,13 @@
         <v>6562</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E50">
         <v>82</v>
@@ -3000,16 +3661,16 @@
         <v>70055.06</v>
       </c>
       <c r="H50" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I50" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="J50" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L50">
         <v>0.01</v>
@@ -3020,13 +3681,13 @@
         <v>5167</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E51">
         <v>62</v>
@@ -3038,19 +3699,19 @@
         <v>24173.18</v>
       </c>
       <c r="H51" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I51" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="J51" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L51">
-        <v>0.07000000000000001</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3058,13 +3719,13 @@
         <v>7694</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E52">
         <v>41</v>
@@ -3076,16 +3737,16 @@
         <v>39411.66</v>
       </c>
       <c r="H52" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I52" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="J52" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="K52" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -3096,13 +3757,13 @@
         <v>6141</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E53">
         <v>35</v>
@@ -3114,16 +3775,16 @@
         <v>24305.4</v>
       </c>
       <c r="H53" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I53" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="J53" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -3134,13 +3795,13 @@
         <v>9639</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" t="s">
         <v>101</v>
-      </c>
-      <c r="D54" t="s">
-        <v>144</v>
       </c>
       <c r="E54">
         <v>77</v>
@@ -3152,16 +3813,16 @@
         <v>32670.33</v>
       </c>
       <c r="H54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I54" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="J54" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -3172,13 +3833,13 @@
         <v>9086</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="E55">
         <v>79</v>
@@ -3190,16 +3851,16 @@
         <v>17434.51</v>
       </c>
       <c r="H55" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I55" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3210,13 +3871,13 @@
         <v>7356</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="E56">
         <v>41</v>
@@ -3228,16 +3889,16 @@
         <v>34269.03</v>
       </c>
       <c r="H56" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I56" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="J56" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3248,13 +3909,13 @@
         <v>8977</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E57">
         <v>73</v>
@@ -3266,16 +3927,16 @@
         <v>60534.52</v>
       </c>
       <c r="H57" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I57" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3286,13 +3947,13 @@
         <v>3651</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E58">
         <v>60</v>
@@ -3304,16 +3965,16 @@
         <v>42249</v>
       </c>
       <c r="H58" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I58" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="J58" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L58">
         <v>0.14</v>
@@ -3324,13 +3985,13 @@
         <v>1319</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E59">
         <v>16</v>
@@ -3339,19 +4000,19 @@
         <v>596.59</v>
       </c>
       <c r="G59">
-        <v>9545.440000000001</v>
+        <v>9545.44</v>
       </c>
       <c r="H59" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I59" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="J59" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K59" t="s">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="L59">
         <v>0.15</v>
@@ -3362,28 +4023,28 @@
         <v>5189</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="F60">
         <v>146.64</v>
       </c>
       <c r="H60" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="I60" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="J60" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="K60" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3397,10 +4058,10 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3412,16 +4073,16 @@
         <v>824.45</v>
       </c>
       <c r="H61" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="I61" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="J61" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="K61" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L61">
         <v>0.02</v>
@@ -3432,13 +4093,13 @@
         <v>8556</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E62">
         <v>13</v>
@@ -3450,16 +4111,16 @@
         <v>10033.01</v>
       </c>
       <c r="H62" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="I62" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="J62" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K62" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L62">
         <v>0.1</v>
@@ -3470,13 +4131,13 @@
         <v>1739</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="E63">
         <v>95</v>
@@ -3488,16 +4149,16 @@
         <v>41062.8</v>
       </c>
       <c r="H63" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I63" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -3508,34 +4169,34 @@
         <v>1712</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E64">
         <v>90</v>
       </c>
       <c r="F64">
-        <v>685.5700000000001</v>
+        <v>685.57</v>
       </c>
       <c r="G64">
         <v>61701.3</v>
       </c>
       <c r="H64" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="I64" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="J64" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -3546,13 +4207,13 @@
         <v>9860</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="E65">
         <v>75</v>
@@ -3564,16 +4225,16 @@
         <v>24023.25</v>
       </c>
       <c r="H65" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="I65" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="J65" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3584,13 +4245,13 @@
         <v>1864</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="E66">
         <v>90</v>
@@ -3602,16 +4263,16 @@
         <v>29049.3</v>
       </c>
       <c r="H66" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="I66" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="J66" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="K66" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L66">
         <v>0.21</v>
@@ -3625,10 +4286,10 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="E67">
         <v>55</v>
@@ -3640,24 +4301,23 @@
         <v>40249</v>
       </c>
       <c r="H67" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="I67" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="2:7">
       <c r="B68">
-        <f>== SUBTOTAL FOR ROWS 61-77 ===</f>
         <v>0</v>
       </c>
       <c r="G68">
@@ -3669,13 +4329,13 @@
         <v>8117</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="E69">
         <v>33</v>
@@ -3687,16 +4347,16 @@
         <v>19707.43</v>
       </c>
       <c r="H69" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="I69" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="J69" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="K69" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L69">
         <v>0.03</v>
@@ -3707,13 +4367,13 @@
         <v>8117</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -3725,16 +4385,16 @@
         <v>19707.43</v>
       </c>
       <c r="H70" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="I70" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="J70" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="K70" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L70">
         <v>0.03</v>
@@ -3745,13 +4405,13 @@
         <v>3647</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="E71">
         <v>17</v>
@@ -3763,16 +4423,16 @@
         <v>6490.6</v>
       </c>
       <c r="H71" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="I71" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="J71" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K71" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L71">
         <v>0.19</v>
@@ -3783,13 +4443,13 @@
         <v>8258</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="E72">
         <v>74</v>
@@ -3801,16 +4461,16 @@
         <v>59175.58</v>
       </c>
       <c r="H72" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="I72" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J72" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="K72" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -3821,13 +4481,13 @@
         <v>6091</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="E73">
         <v>80</v>
@@ -3839,16 +4499,16 @@
         <v>37784</v>
       </c>
       <c r="H73" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="I73" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="J73" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -3859,13 +4519,13 @@
         <v>6620</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F74">
         <v>603.86</v>
@@ -3874,16 +4534,16 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="I74" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="J74" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K74" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -3894,13 +4554,13 @@
         <v>4934</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E75">
         <v>13</v>
@@ -3912,16 +4572,16 @@
         <v>1340.56</v>
       </c>
       <c r="H75" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="I75" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="J75" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K75" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L75">
         <v>0.16</v>
@@ -3932,13 +4592,13 @@
         <v>8746</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="E76">
         <v>63</v>
@@ -3950,16 +4610,16 @@
         <v>23134.23</v>
       </c>
       <c r="H76" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="I76" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="J76" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -3970,13 +4630,13 @@
         <v>3962</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="E77">
         <v>79</v>
@@ -3988,16 +4648,16 @@
         <v>28874.5</v>
       </c>
       <c r="H77" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="I77" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K77" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="L77">
         <v>0.11</v>
@@ -4008,13 +4668,13 @@
         <v>3466</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E78">
         <v>68</v>
@@ -4026,16 +4686,16 @@
         <v>59004.96</v>
       </c>
       <c r="H78" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="I78" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="J78" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="K78" t="s">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L78">
         <v>0.21</v>
@@ -4046,13 +4706,13 @@
         <v>1803</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E79">
         <v>76</v>
@@ -4064,16 +4724,16 @@
         <v>54894.04</v>
       </c>
       <c r="H79" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="J79" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="K79" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -4084,13 +4744,13 @@
         <v>1749</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="C80" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="E80">
         <v>64</v>
@@ -4102,16 +4762,16 @@
         <v>41782.4</v>
       </c>
       <c r="H80" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="I80" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="J80" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="K80" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -4122,13 +4782,13 @@
         <v>6804</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E81">
         <v>45</v>
@@ -4140,16 +4800,16 @@
         <v>1407.15</v>
       </c>
       <c r="H81" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="I81" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="J81" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="K81" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -4160,13 +4820,13 @@
         <v>4669</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="E82">
         <v>60</v>
@@ -4178,16 +4838,16 @@
         <v>2550.6</v>
       </c>
       <c r="H82" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="I82" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="J82" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="K82" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -4195,5 +4855,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>